--- a/data/upstream.xlsx
+++ b/data/upstream.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20390"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10611"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E733CB2B-B533-4830-AF5B-39B7D87FA614}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE19994E-FE38-3640-89D1-B2AEBA831A22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5260" yWindow="1160" windowWidth="13180" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,15 +360,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -382,22 +382,135 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1.2</v>
+        <v>57.871000000002198</v>
       </c>
       <c r="C2">
-        <v>1.3</v>
+        <v>59.009000000000803</v>
       </c>
       <c r="D2">
-        <v>100</v>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>72.074500000002899</v>
+      </c>
+      <c r="C3">
+        <v>40.079666666666</v>
+      </c>
+      <c r="D3">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>53.8205000000005</v>
+      </c>
+      <c r="C4">
+        <v>29.224333333334101</v>
+      </c>
+      <c r="D4">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>40.325500000001597</v>
+      </c>
+      <c r="C5">
+        <v>44.045999999999196</v>
+      </c>
+      <c r="D5">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>44.524000000002701</v>
+      </c>
+      <c r="C6">
+        <v>15.1806666666658</v>
+      </c>
+      <c r="D6">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>71.482750000001303</v>
+      </c>
+      <c r="C7">
+        <v>32.951666666666803</v>
+      </c>
+      <c r="D7">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>30.247500000001502</v>
+      </c>
+      <c r="C8">
+        <v>19.980666666666501</v>
+      </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>83.222250000002205</v>
+      </c>
+      <c r="C9">
+        <v>15.0120000000011</v>
+      </c>
+      <c r="D9">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>36.103250000000003</v>
+      </c>
+      <c r="C10">
+        <v>39.432333333332799</v>
+      </c>
+      <c r="D10">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>